--- a/archivos/RTrasiegoHojaAnalisis.xlsx
+++ b/archivos/RTrasiegoHojaAnalisis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0AC7B4-B102-437B-A296-26ADA39FB7FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795DA1DC-6828-406F-A848-98E78498BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Trazabilidad de Barriles y Rones Envejecidos</t>
   </si>
@@ -101,15 +101,12 @@
   <si>
     <t>FCV =</t>
   </si>
-  <si>
-    <t>Tanque:</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,6 +136,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -271,7 +275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,19 +290,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -307,12 +310,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -323,11 +320,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,15 +431,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>151935</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -441,13 +453,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="9526" y="1"/>
+          <a:ext cx="2476499" cy="600074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -759,126 +778,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O1010"/>
+  <dimension ref="B1:P1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="0.42578125" customWidth="1"/>
     <col min="3" max="3" width="1.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="32" t="s">
+    <row r="1" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-    </row>
-    <row r="2" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+    </row>
+    <row r="2" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+    </row>
+    <row r="3" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="L5" s="33" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="L5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+    </row>
+    <row r="6" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="7"/>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="34"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K7" s="28"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
       <c r="D8" s="11"/>
@@ -894,1476 +906,1416 @@
       <c r="N8" s="12"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="40" t="s">
+    <row r="9" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D100" s="23"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="10"/>
-    </row>
-    <row r="101" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D101" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N101" s="27"/>
-      <c r="O101" s="28"/>
-    </row>
-    <row r="102" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D102" s="24"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="14"/>
-    </row>
-    <row r="103" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D103" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N103" s="27"/>
-      <c r="O103" s="28"/>
-    </row>
-    <row r="104" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D104" s="24"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="14"/>
-    </row>
-    <row r="105" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D105" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N105" s="27"/>
-      <c r="O105" s="28"/>
-    </row>
-    <row r="106" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D106" s="24"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="14"/>
-    </row>
-    <row r="107" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D107" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N107" s="27"/>
-      <c r="O107" s="28"/>
-    </row>
-    <row r="108" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D108" s="24"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="14"/>
-    </row>
-    <row r="109" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D109" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="N109" s="27"/>
-      <c r="O109" s="28"/>
-    </row>
-    <row r="110" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D110" s="24"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="14"/>
-    </row>
-    <row r="111" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D111" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="N111" s="27"/>
-      <c r="O111" s="28"/>
-    </row>
-    <row r="112" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D112" s="24"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="14"/>
-    </row>
-    <row r="113" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D113" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="14"/>
-    </row>
-    <row r="114" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D114" s="26"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="18"/>
-    </row>
-    <row r="115" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
     </row>
-    <row r="117" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
     </row>
-    <row r="197" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
-    </row>
-    <row r="201" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-    </row>
-    <row r="202" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-    </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
-    </row>
-    <row r="205" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-      <c r="G205" s="4"/>
-    </row>
-    <row r="206" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
-    </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
-    </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
-    </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
-      <c r="G209" s="4"/>
-    </row>
-    <row r="210" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
-      <c r="G210" s="4"/>
-    </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
-    </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
-    </row>
-    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
-      <c r="G213" s="4"/>
-    </row>
-    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="4"/>
-      <c r="G214" s="4"/>
-    </row>
-    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D200" s="22"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="19"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="8"/>
+      <c r="J200" s="8"/>
+      <c r="K200" s="8"/>
+      <c r="L200" s="8"/>
+      <c r="M200" s="8"/>
+      <c r="N200" s="8"/>
+      <c r="O200" s="8"/>
+      <c r="P200" s="10"/>
+    </row>
+    <row r="201" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="39"/>
+      <c r="F201" s="39"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="26"/>
+      <c r="I201" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J201" s="16"/>
+      <c r="K201" s="16"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N201" s="31"/>
+      <c r="O201" s="31"/>
+      <c r="P201" s="32"/>
+    </row>
+    <row r="202" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D202" s="23"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="13"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="12"/>
+      <c r="N202" s="12"/>
+      <c r="O202" s="12"/>
+      <c r="P202" s="14"/>
+    </row>
+    <row r="203" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D203" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" s="37"/>
+      <c r="F203" s="37"/>
+      <c r="G203" s="21"/>
+      <c r="H203" s="13"/>
+      <c r="I203" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J203" s="31"/>
+      <c r="K203" s="31"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N203" s="31"/>
+      <c r="O203" s="31"/>
+      <c r="P203" s="32"/>
+    </row>
+    <row r="204" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="23"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+      <c r="G204" s="21"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
+      <c r="L204" s="12"/>
+      <c r="M204" s="12"/>
+      <c r="N204" s="12"/>
+      <c r="O204" s="12"/>
+      <c r="P204" s="14"/>
+    </row>
+    <row r="205" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J205" s="31"/>
+      <c r="K205" s="31"/>
+      <c r="L205" s="12"/>
+      <c r="M205" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N205" s="31"/>
+      <c r="O205" s="31"/>
+      <c r="P205" s="32"/>
+    </row>
+    <row r="206" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="23"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="13"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="12"/>
+      <c r="L206" s="12"/>
+      <c r="M206" s="12"/>
+      <c r="N206" s="12"/>
+      <c r="O206" s="12"/>
+      <c r="P206" s="14"/>
+    </row>
+    <row r="207" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="20"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="20"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J207" s="31"/>
+      <c r="K207" s="31"/>
+      <c r="L207" s="12"/>
+      <c r="M207" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N207" s="31"/>
+      <c r="O207" s="31"/>
+      <c r="P207" s="32"/>
+    </row>
+    <row r="208" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D208" s="23"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="13"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
+      <c r="L208" s="12"/>
+      <c r="M208" s="12"/>
+      <c r="N208" s="12"/>
+      <c r="O208" s="12"/>
+      <c r="P208" s="14"/>
+    </row>
+    <row r="209" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D209" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="20"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J209" s="31"/>
+      <c r="K209" s="31"/>
+      <c r="L209" s="12"/>
+      <c r="M209" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N209" s="31"/>
+      <c r="O209" s="31"/>
+      <c r="P209" s="32"/>
+    </row>
+    <row r="210" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D210" s="23"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="21"/>
+      <c r="G210" s="21"/>
+      <c r="H210" s="13"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="12"/>
+      <c r="M210" s="12"/>
+      <c r="N210" s="12"/>
+      <c r="O210" s="12"/>
+      <c r="P210" s="14"/>
+    </row>
+    <row r="211" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D211" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J211" s="31"/>
+      <c r="K211" s="31"/>
+      <c r="L211" s="12"/>
+      <c r="M211" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N211" s="31"/>
+      <c r="O211" s="31"/>
+      <c r="P211" s="32"/>
+    </row>
+    <row r="212" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="23"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="13"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="12"/>
+      <c r="L212" s="12"/>
+      <c r="M212" s="12"/>
+      <c r="N212" s="12"/>
+      <c r="O212" s="12"/>
+      <c r="P212" s="14"/>
+    </row>
+    <row r="213" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D213" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" s="31"/>
+      <c r="F213" s="31"/>
+      <c r="G213" s="20"/>
+      <c r="H213" s="13"/>
+      <c r="I213" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J213" s="31"/>
+      <c r="K213" s="31"/>
+      <c r="L213" s="12"/>
+      <c r="M213" s="12"/>
+      <c r="N213" s="12"/>
+      <c r="O213" s="12"/>
+      <c r="P213" s="14"/>
+    </row>
+    <row r="214" spans="4:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="25"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="20"/>
+      <c r="H214" s="17"/>
+      <c r="I214" s="16"/>
+      <c r="J214" s="16"/>
+      <c r="K214" s="16"/>
+      <c r="L214" s="16"/>
+      <c r="M214" s="16"/>
+      <c r="N214" s="16"/>
+      <c r="O214" s="16"/>
+      <c r="P214" s="18"/>
+    </row>
+    <row r="215" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
     </row>
-    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
     </row>
-    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
     </row>
-    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
     </row>
-    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
     </row>
-    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
     </row>
-    <row r="223" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
     </row>
-    <row r="224" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
@@ -7086,33 +7038,32 @@
       <c r="G1010" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="M109:O109"/>
-    <mergeCell ref="M111:O111"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I103:K103"/>
-    <mergeCell ref="I105:K105"/>
-    <mergeCell ref="I107:K107"/>
-    <mergeCell ref="I109:K109"/>
-    <mergeCell ref="I111:K111"/>
-    <mergeCell ref="I113:K113"/>
-    <mergeCell ref="M101:O101"/>
-    <mergeCell ref="M103:O103"/>
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="M107:O107"/>
+  <mergeCells count="22">
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="D201:F201"/>
+    <mergeCell ref="I203:K203"/>
+    <mergeCell ref="I205:K205"/>
+    <mergeCell ref="I207:K207"/>
+    <mergeCell ref="I209:K209"/>
+    <mergeCell ref="I211:K211"/>
+    <mergeCell ref="I213:K213"/>
+    <mergeCell ref="M207:P207"/>
+    <mergeCell ref="F1:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="M209:P209"/>
+    <mergeCell ref="M211:P211"/>
+    <mergeCell ref="M203:P203"/>
+    <mergeCell ref="M201:P201"/>
+    <mergeCell ref="M205:P205"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="L7:N7"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="F1:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L7:O7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LFecha de generación: &amp;D &amp;T&amp;RPágina: &amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;LCompañia Licorera de Nicaragua. S.A.</oddFooter>
